--- a/sputnik/personal/cel/cel47.xlsx
+++ b/sputnik/personal/cel/cel47.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +213,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,16 +601,76 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="16">
+        <v>43745</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="6">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="16">
+        <v>43745</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>43745</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>43745</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43976</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>43977</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel47.xlsx
+++ b/sputnik/personal/cel/cel47.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
-  </si>
-  <si>
-    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
-  </si>
-  <si>
-    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -174,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -214,7 +205,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,76 +590,28 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>43745</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="6">
-        <v>500</v>
-      </c>
+        <v>43952</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>43745</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>44084</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>43745</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>43745</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>43976</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>43977</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="17">
-        <v>500</v>
+      <c r="D8" s="11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/cel/cel47.xlsx
+++ b/sputnik/personal/cel/cel47.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +211,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,10 +521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,6 +621,42 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>44196</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>44196</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>44196</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/cel/cel47.xlsx
+++ b/sputnik/personal/cel/cel47.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D11"/>
+      <selection activeCell="A12" sqref="A12:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,6 +664,66 @@
       <c r="D11" s="7">
         <v>431</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1619</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel47.xlsx
+++ b/sputnik/personal/cel/cel47.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -530,7 +539,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D19"/>
+      <selection activeCell="A14" sqref="A14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -685,27 +694,45 @@
         <v>12</v>
       </c>
       <c r="C13" s="11">
-        <v>1619</v>
+        <v>170</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="16">
+        <v>44468</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="16">
+        <v>44468</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>170</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="16">
+        <v>44468</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>1449</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
